--- a/Bill Of Materials/Printer Kitten BOM (Known Not Accurate, missing and incorrect parts).xlsx
+++ b/Bill Of Materials/Printer Kitten BOM (Known Not Accurate, missing and incorrect parts).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woolfepr\Documents\GitHub\Printer-Kitten\Bill Of Materials\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5376" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kitten with Heated Bed" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kitten with Heated Bed'!$G$4:$G$52</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -388,12 +383,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,11 +474,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,65 +755,65 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="4" customFormat="1">
       <c r="C2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="14.45" customHeight="1">
       <c r="E3" s="5"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -837,7 +832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -872,7 +867,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -904,7 +899,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -939,7 +934,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -974,7 +969,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1006,7 +1001,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1038,7 +1033,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1070,7 +1065,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1102,7 +1097,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1129,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1166,7 +1161,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1201,7 +1196,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1236,7 +1231,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1271,7 +1266,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -1303,7 +1298,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -1332,7 +1327,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1367,7 +1362,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1399,7 +1394,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1431,7 +1426,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1463,7 +1458,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -1495,7 +1490,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -1527,7 +1522,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1559,7 +1554,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1591,7 +1586,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1623,7 +1618,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -1655,7 +1650,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1687,7 +1682,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1719,7 +1714,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1751,7 +1746,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17">
       <c r="A33" s="10" t="s">
         <v>68</v>
       </c>
@@ -1783,7 +1778,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1815,7 +1810,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1847,7 +1842,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -1879,7 +1874,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1914,7 +1909,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1946,7 +1941,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39" s="13" t="s">
         <v>79</v>
       </c>
@@ -1981,7 +1976,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="A40" s="13" t="s">
         <v>80</v>
       </c>
@@ -2016,7 +2011,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="A41" s="13" t="s">
         <v>89</v>
       </c>
@@ -2048,7 +2043,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -2080,7 +2075,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -2112,7 +2107,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -2144,7 +2139,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2176,7 +2171,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2208,7 +2203,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -2240,14 +2235,14 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="C48" s="12"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7">
       <c r="C49" s="12"/>
       <c r="D49" t="s">
         <v>14</v>
@@ -2256,7 +2251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7">
       <c r="D50">
         <f>SUM(D5:D48)</f>
         <v>78</v>
@@ -2266,16 +2261,16 @@
         <v>689.7399999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" ht="15.75">
       <c r="G54" s="6"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7">
       <c r="B57"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7">
       <c r="B60"/>
     </row>
   </sheetData>
@@ -2289,27 +2284,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="D2" s="16" t="s">
         <v>115</v>
       </c>
@@ -2317,7 +2312,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -2335,6 +2330,11 @@
       </c>
       <c r="G3" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="D4">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>

--- a/Bill Of Materials/Printer Kitten BOM (Known Not Accurate, missing and incorrect parts).xlsx
+++ b/Bill Of Materials/Printer Kitten BOM (Known Not Accurate, missing and incorrect parts).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="Kitten with Heated Bed" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="149">
   <si>
     <t>robotdigg</t>
   </si>
@@ -59,9 +59,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Discounted Parts Cost</t>
-  </si>
-  <si>
     <t>Number Of Parts</t>
   </si>
   <si>
@@ -365,19 +362,109 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Recommended Settings with a .4mm Nozzle</t>
-  </si>
-  <si>
-    <t>Shell Thickness</t>
-  </si>
-  <si>
-    <t>Bottom/Top Thickness</t>
-  </si>
-  <si>
-    <t>Layer Height</t>
-  </si>
-  <si>
-    <t>Infill Percentage</t>
+    <t>Printed Part, Corner, Upper Front Right</t>
+  </si>
+  <si>
+    <t>Printed Part, Corner, Upper Front Left</t>
+  </si>
+  <si>
+    <t>Printed Part, Corner, Upper Back Right</t>
+  </si>
+  <si>
+    <t>Printed Part, X&amp;Y End</t>
+  </si>
+  <si>
+    <t>Printed Part, X&amp;Y End Belt Clamp 1</t>
+  </si>
+  <si>
+    <t>Printed Part, X&amp;Y End Belt Clamp 2</t>
+  </si>
+  <si>
+    <t>Printed Part, X&amp;Y End Belt Clamp 3</t>
+  </si>
+  <si>
+    <t>Printed Part, Print Head Body</t>
+  </si>
+  <si>
+    <t>Printed Part, Print Head Clamp</t>
+  </si>
+  <si>
+    <t>Printed Part, Bondtech Housing Front 1.75</t>
+  </si>
+  <si>
+    <t>Printed Part, Bondtech Housing Rear</t>
+  </si>
+  <si>
+    <t>Printed Part, Y Motor Mount</t>
+  </si>
+  <si>
+    <t>Printed Part, Z Motor Mount</t>
+  </si>
+  <si>
+    <t>Printed Part, Lower Rod Mount</t>
+  </si>
+  <si>
+    <t>Printed Part, X&amp;Y Belt Guide</t>
+  </si>
+  <si>
+    <t>Printed Part, X&amp;Y Spacer</t>
+  </si>
+  <si>
+    <t>Printed Part, Upper Rod Mount</t>
+  </si>
+  <si>
+    <t>Printed Part, Z End Stop Mount</t>
+  </si>
+  <si>
+    <t>Printed Part, Z End Stop Magnet Mount</t>
+  </si>
+  <si>
+    <t>Printed Part, Z Adjustment Nut</t>
+  </si>
+  <si>
+    <t>Printed Part, Spool Holder Part1</t>
+  </si>
+  <si>
+    <t>Printed Part, BondTech Clamp1</t>
+  </si>
+  <si>
+    <t>Printed Part, BondTech Clamp2</t>
+  </si>
+  <si>
+    <t>Printed Part, Spool Holder Part2</t>
+  </si>
+  <si>
+    <t>Printed Part, Spool Holder Part3</t>
+  </si>
+  <si>
+    <t>Printed Part, Spool Holder Part4</t>
+  </si>
+  <si>
+    <t>Printed Part, IO Mount</t>
+  </si>
+  <si>
+    <t>total Printed parts</t>
+  </si>
+  <si>
+    <t>Printed Part, Rambo Mini Mount 1</t>
+  </si>
+  <si>
+    <t>Printed Part, Rambo Mini Mount 2</t>
+  </si>
+  <si>
+    <t>Printed Part, LCD Mount 1</t>
+  </si>
+  <si>
+    <t>Printed Part, LCD Mount 2</t>
+  </si>
+  <si>
+    <t>Printed Part, LCD Mount 3</t>
+  </si>
+  <si>
+    <t>Printed Part, LCD Mount 4</t>
+  </si>
+  <si>
+    <t>Parts Cost</t>
   </si>
 </sst>
 </file>
@@ -755,7 +842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,13 +852,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
@@ -788,7 +875,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1">
@@ -808,13 +895,13 @@
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>4</v>
@@ -826,18 +913,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>6.8</v>
@@ -856,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -869,10 +956,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>32.5</v>
@@ -901,10 +988,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -923,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -939,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>9</v>
@@ -958,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -971,10 +1058,10 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>1.8</v>
@@ -1003,10 +1090,10 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>1.8</v>
@@ -1035,10 +1122,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
         <v>28</v>
@@ -1067,10 +1154,10 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
         <v>1.85</v>
@@ -1102,7 +1189,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
         <v>1.8</v>
@@ -1131,10 +1218,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1">
         <v>15.8</v>
@@ -1163,7 +1250,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
@@ -1185,7 +1272,7 @@
         <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1198,7 +1285,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>12</v>
@@ -1220,7 +1307,7 @@
         <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1233,7 +1320,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>12</v>
@@ -1255,7 +1342,7 @@
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1268,7 +1355,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1">
         <v>24.99</v>
@@ -1287,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1300,7 +1387,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1">
         <v>29</v>
@@ -1329,10 +1416,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="C20" s="2">
         <v>120</v>
@@ -1348,10 +1435,10 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1364,10 +1451,10 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
         <v>8.44</v>
@@ -1396,10 +1483,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="C22" s="1">
         <v>6.6</v>
@@ -1428,10 +1515,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="C23" s="1">
         <v>8.3699999999999992</v>
@@ -1460,10 +1547,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1">
         <v>13.35</v>
@@ -1492,10 +1579,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="C25" s="1">
         <v>9.82</v>
@@ -1524,10 +1611,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="C26" s="1">
         <v>8.2799999999999994</v>
@@ -1556,10 +1643,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="C27" s="1">
         <v>2.64</v>
@@ -1588,10 +1675,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="C28" s="1">
         <v>2.64</v>
@@ -1620,10 +1707,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1">
         <v>8.81</v>
@@ -1652,10 +1739,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1">
         <v>12.3</v>
@@ -1684,10 +1771,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1">
         <v>14.4</v>
@@ -1716,10 +1803,10 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="C32" s="1">
         <v>5.0199999999999996</v>
@@ -1748,10 +1835,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="C33" s="1">
         <v>7.07</v>
@@ -1780,7 +1867,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>11</v>
@@ -1812,10 +1899,10 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
         <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
       </c>
       <c r="C35" s="1">
         <v>3.87</v>
@@ -1844,10 +1931,10 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
@@ -1876,10 +1963,10 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="C37" s="1">
         <v>2.52</v>
@@ -1898,7 +1985,7 @@
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1911,10 +1998,10 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
         <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
       </c>
       <c r="C38" s="1">
         <v>10.35</v>
@@ -1943,10 +2030,10 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="12">
         <v>13.24</v>
@@ -1965,7 +2052,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -1978,10 +2065,10 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1">
         <v>8.39</v>
@@ -2000,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2013,10 +2100,10 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
         <v>89</v>
-      </c>
-      <c r="B41" t="s">
-        <v>90</v>
       </c>
       <c r="C41" s="1">
         <v>1.25</v>
@@ -2045,7 +2132,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
@@ -2061,10 +2148,10 @@
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2077,7 +2164,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="1">
         <v>60</v>
@@ -2093,10 +2180,10 @@
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2109,7 +2196,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="12">
         <v>7.9</v>
@@ -2125,10 +2212,10 @@
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2141,7 +2228,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="12">
         <v>1.7</v>
@@ -2157,10 +2244,10 @@
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2173,7 +2260,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="12">
         <v>10</v>
@@ -2189,10 +2276,10 @@
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2205,10 +2292,10 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
         <v>99</v>
-      </c>
-      <c r="B47" t="s">
-        <v>100</v>
       </c>
       <c r="C47" s="1">
         <v>0.6</v>
@@ -2224,7 +2311,7 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2245,10 +2332,10 @@
     <row r="49" spans="2:7">
       <c r="C49" s="12"/>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -2285,14 +2372,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -2301,40 +2389,294 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="D2" s="16" t="s">
-        <v>115</v>
-      </c>
+      <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
         <v>113</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>114</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>118</v>
       </c>
-      <c r="E3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="D4">
-        <v>0.12</v>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38">
+        <f>SUM(B4:B36)</f>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Bill Of Materials/Printer Kitten BOM (Known Not Accurate, missing and incorrect parts).xlsx
+++ b/Bill Of Materials/Printer Kitten BOM (Known Not Accurate, missing and incorrect parts).xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kitten with Heated Bed" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Printed Parts" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kitten with Heated Bed'!$G$4:$G$52</definedName>
@@ -425,12 +425,6 @@
     <t>Printed Part, Spool Holder Part1</t>
   </si>
   <si>
-    <t>Printed Part, BondTech Clamp1</t>
-  </si>
-  <si>
-    <t>Printed Part, BondTech Clamp2</t>
-  </si>
-  <si>
     <t>Printed Part, Spool Holder Part2</t>
   </si>
   <si>
@@ -465,6 +459,12 @@
   </si>
   <si>
     <t>Parts Cost</t>
+  </si>
+  <si>
+    <t>Printed Part, BondTech Clamp 1</t>
+  </si>
+  <si>
+    <t>Printed Part, BondTech Clamp 2</t>
   </si>
 </sst>
 </file>
@@ -842,7 +842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -852,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
@@ -2335,7 +2335,7 @@
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -2374,13 +2374,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38">
         <f>SUM(B4:B36)</f>

--- a/Bill Of Materials/Printer Kitten BOM (Known Not Accurate, missing and incorrect parts).xlsx
+++ b/Bill Of Materials/Printer Kitten BOM (Known Not Accurate, missing and incorrect parts).xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="Kitten with Heated Bed" sheetId="1" r:id="rId1"/>
     <sheet name="Printed Parts" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kitten with Heated Bed'!$G$4:$G$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kitten with Heated Bed'!$G$4:$G$54</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="151">
   <si>
     <t>robotdigg</t>
   </si>
@@ -56,18 +56,12 @@
     <t>90323A217</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Number Of Parts</t>
   </si>
   <si>
     <t>Part Description</t>
   </si>
   <si>
-    <t>Smart controller LCD 12864</t>
-  </si>
-  <si>
     <t>shop.Bondtech.se</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
     <t>get with Optical Endstop Kits w/ Wiring</t>
   </si>
   <si>
-    <t>Bondtech Extruder V2 1.75 Mechanical Kit</t>
-  </si>
-  <si>
     <t>Adapter Direct - Bowden 1.75</t>
   </si>
   <si>
@@ -323,9 +314,6 @@
     <t>Super Magnet Man</t>
   </si>
   <si>
-    <t>12V 12A Power Supply</t>
-  </si>
-  <si>
     <t>ultimachine</t>
   </si>
   <si>
@@ -335,9 +323,6 @@
     <t>Bondtech</t>
   </si>
   <si>
-    <t>12864LCD</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -389,12 +374,6 @@
     <t>Printed Part, Print Head Clamp</t>
   </si>
   <si>
-    <t>Printed Part, Bondtech Housing Front 1.75</t>
-  </si>
-  <si>
-    <t>Printed Part, Bondtech Housing Rear</t>
-  </si>
-  <si>
     <t>Printed Part, Y Motor Mount</t>
   </si>
   <si>
@@ -465,6 +444,33 @@
   </si>
   <si>
     <t>Printed Part, BondTech Clamp 2</t>
+  </si>
+  <si>
+    <t>Bondtech Extruder V2 1.75 Mechanical Kit + SLS</t>
+  </si>
+  <si>
+    <t>shop.Bondtech.se (uses a kitten specific mounting bracket in the printed parts area of BOM)</t>
+  </si>
+  <si>
+    <t>Full Graphic Smart LCD Controller</t>
+  </si>
+  <si>
+    <t>reprapdiscount</t>
+  </si>
+  <si>
+    <t>there are less expensive sources for this part, but quality may not be as good</t>
+  </si>
+  <si>
+    <t>12V 12A Laptop Style Power Supply with barrel plug</t>
+  </si>
+  <si>
+    <t>Heat-Resistant Borosilicate Glass 5" x 5" x  1/8" 8476K15</t>
+  </si>
+  <si>
+    <t>8476K15</t>
+  </si>
+  <si>
+    <t>buildtak 4.5" x 4.5"</t>
   </si>
 </sst>
 </file>
@@ -842,7 +848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -850,15 +856,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
@@ -875,7 +881,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1">
@@ -895,13 +901,13 @@
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>4</v>
@@ -913,18 +919,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>6.8</v>
@@ -943,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -956,10 +962,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>32.5</v>
@@ -988,10 +994,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -1010,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1026,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>9</v>
@@ -1045,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1058,10 +1064,10 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>1.8</v>
@@ -1090,10 +1096,10 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>1.8</v>
@@ -1122,10 +1128,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="1">
         <v>28</v>
@@ -1154,10 +1160,10 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="1">
         <v>1.85</v>
@@ -1189,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
         <v>1.8</v>
@@ -1218,26 +1224,26 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="C14" s="1">
-        <v>15.8</v>
+        <v>69</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>15.8</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="H14" t="s">
+        <v>146</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1250,10 +1256,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
         <v>1.79</v>
@@ -1272,7 +1275,7 @@
         <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1285,10 +1288,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
         <v>5.99</v>
@@ -1307,7 +1307,7 @@
         <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1320,10 +1320,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1">
         <v>6.99</v>
@@ -1342,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1355,7 +1352,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1">
         <v>24.99</v>
@@ -1374,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1387,7 +1384,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="C19" s="1">
         <v>29</v>
@@ -1416,10 +1413,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2">
         <v>120</v>
@@ -1435,10 +1432,10 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1451,10 +1448,10 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1">
         <v>8.44</v>
@@ -1483,10 +1480,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>6.6</v>
@@ -1515,10 +1512,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1">
         <v>8.3699999999999992</v>
@@ -1547,10 +1544,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1">
         <v>13.35</v>
@@ -1579,10 +1576,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1">
         <v>9.82</v>
@@ -1611,10 +1608,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
         <v>8.2799999999999994</v>
@@ -1643,10 +1640,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1">
         <v>2.64</v>
@@ -1675,10 +1672,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1">
         <v>2.64</v>
@@ -1707,10 +1704,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1">
         <v>8.81</v>
@@ -1739,10 +1736,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1">
         <v>12.3</v>
@@ -1771,10 +1768,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1">
         <v>14.4</v>
@@ -1803,10 +1800,10 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1">
         <v>5.0199999999999996</v>
@@ -1835,10 +1832,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C33" s="1">
         <v>7.07</v>
@@ -1867,7 +1864,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>11</v>
@@ -1899,10 +1896,10 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1">
         <v>3.87</v>
@@ -1931,10 +1928,10 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
@@ -1963,10 +1960,10 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1">
         <v>2.52</v>
@@ -1985,7 +1982,7 @@
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1998,10 +1995,10 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1">
         <v>10.35</v>
@@ -2030,10 +2027,10 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C39" s="12">
         <v>13.24</v>
@@ -2052,7 +2049,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2065,10 +2062,10 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1">
         <v>8.39</v>
@@ -2087,7 +2084,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2100,10 +2097,10 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C41" s="1">
         <v>1.25</v>
@@ -2131,27 +2128,27 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" t="s">
-        <v>72</v>
+      <c r="A42" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" t="s">
+        <v>149</v>
       </c>
       <c r="C42" s="1">
-        <v>40</v>
+        <v>12.63</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" ref="E42:E45" si="3">D42*C42</f>
-        <v>40</v>
+        <f>D42*C42</f>
+        <v>12.63</v>
       </c>
       <c r="F42" t="s">
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>103</v>
-      </c>
-      <c r="H42" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2164,26 +2161,26 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <f t="shared" ref="E43:E46" si="3">D43*C43</f>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2196,26 +2193,26 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="12">
-        <v>7.9</v>
+        <v>142</v>
+      </c>
+      <c r="C44" s="1">
+        <v>80</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="3"/>
-        <v>7.9</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2228,26 +2225,26 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C45" s="12">
-        <v>1.7</v>
+        <v>7.9</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="3"/>
-        <v>5.0999999999999996</v>
+        <v>7.9</v>
       </c>
       <c r="F45" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>94</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2260,26 +2257,26 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C46" s="12">
-        <v>10</v>
+        <v>1.7</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" s="1">
-        <f>D46*C46</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F46" t="s">
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2292,26 +2289,26 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.6</v>
+        <v>92</v>
+      </c>
+      <c r="C47" s="12">
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
         <f>D47*C47</f>
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2323,45 +2320,91 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="C48" s="12"/>
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1">
+        <f>D48*C48</f>
+        <v>4.2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>97</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="C49" s="12"/>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="D50">
-        <f>SUM(D5:D48)</f>
-        <v>78</v>
-      </c>
-      <c r="E50" s="1">
-        <f>SUM(E5:E49)</f>
-        <v>689.7399999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="15.75">
-      <c r="G54" s="6"/>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57"/>
-    </row>
-    <row r="59" spans="2:7">
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="C50" s="12"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="C51" s="12"/>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="D52">
+        <f>SUM(D5:D50)</f>
+        <v>79</v>
+      </c>
+      <c r="E52" s="1">
+        <f>SUM(E5:E51)</f>
+        <v>775.56999999999982</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15.75">
+      <c r="G56" s="6"/>
+    </row>
+    <row r="59" spans="1:17">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:7">
-      <c r="B60"/>
+    <row r="61" spans="1:17">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="B62"/>
     </row>
   </sheetData>
-  <autoFilter ref="G4:G52"/>
+  <autoFilter ref="G4:G54"/>
   <mergeCells count="1">
     <mergeCell ref="J3:Q3"/>
   </mergeCells>
@@ -2372,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2389,7 +2432,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2400,15 +2443,15 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2416,7 +2459,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2424,7 +2467,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2432,7 +2475,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -2440,7 +2483,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -2448,7 +2491,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -2456,7 +2499,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -2464,7 +2507,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2472,7 +2515,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2480,7 +2523,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2488,7 +2531,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2496,15 +2539,15 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2512,23 +2555,23 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2536,15 +2579,15 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2552,7 +2595,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2560,15 +2603,15 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2576,15 +2619,15 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2592,7 +2635,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2600,7 +2643,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2608,7 +2651,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2616,15 +2659,15 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2632,15 +2675,15 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2648,35 +2691,19 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38">
-        <f>SUM(B4:B36)</f>
-        <v>57</v>
+        <f>SUM(B4:B34)</f>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
